--- a/Zeus/data/TSP/Problems/swiss42.xlsx
+++ b/Zeus/data/TSP/Problems/swiss42.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dlm1026\Desktop\New folder\EdgeWeightHeaders\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Davis/Desktop/full-matrices/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10185"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="24800" windowHeight="18700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,9 +17,15 @@
   <definedNames>
     <definedName name="swiss42" localSheetId="0">Sheet1!$A$1:$AQ$50</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -87,7 +93,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -405,18 +411,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" customWidth="1"/>
     <col min="3" max="43" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -424,7 +430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -432,7 +438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -440,7 +446,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -448,7 +454,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -456,7 +462,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -464,12 +470,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0</v>
       </c>
@@ -597,7 +603,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>15</v>
       </c>
@@ -725,7 +731,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>30</v>
       </c>
@@ -853,7 +859,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>23</v>
       </c>
@@ -981,7 +987,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>32</v>
       </c>
@@ -1109,7 +1115,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>55</v>
       </c>
@@ -1237,7 +1243,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>33</v>
       </c>
@@ -1365,7 +1371,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>37</v>
       </c>
@@ -1493,7 +1499,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>92</v>
       </c>
@@ -1621,7 +1627,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>114</v>
       </c>
@@ -1749,7 +1755,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>92</v>
       </c>
@@ -1877,7 +1883,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>110</v>
       </c>
@@ -2005,7 +2011,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>96</v>
       </c>
@@ -2133,7 +2139,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>90</v>
       </c>
@@ -2261,7 +2267,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>74</v>
       </c>
@@ -2389,7 +2395,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>76</v>
       </c>
@@ -2517,7 +2523,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>82</v>
       </c>
@@ -2645,7 +2651,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>67</v>
       </c>
@@ -2773,7 +2779,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>72</v>
       </c>
@@ -2901,7 +2907,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>78</v>
       </c>
@@ -3029,7 +3035,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>82</v>
       </c>
@@ -3157,7 +3163,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>159</v>
       </c>
@@ -3285,7 +3291,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>122</v>
       </c>
@@ -3413,7 +3419,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>131</v>
       </c>
@@ -3541,7 +3547,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>206</v>
       </c>
@@ -3669,7 +3675,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>112</v>
       </c>
@@ -3797,7 +3803,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>57</v>
       </c>
@@ -3925,7 +3931,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>28</v>
       </c>
@@ -4053,7 +4059,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>43</v>
       </c>
@@ -4181,7 +4187,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>70</v>
       </c>
@@ -4309,7 +4315,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>65</v>
       </c>
@@ -4437,7 +4443,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>66</v>
       </c>
@@ -4565,7 +4571,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>37</v>
       </c>
@@ -4693,7 +4699,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>103</v>
       </c>
@@ -4821,7 +4827,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>84</v>
       </c>
@@ -4949,7 +4955,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>125</v>
       </c>
@@ -5077,7 +5083,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="44" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>129</v>
       </c>
@@ -5205,7 +5211,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="45" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>72</v>
       </c>
@@ -5333,7 +5339,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>126</v>
       </c>
@@ -5461,7 +5467,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="47" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>141</v>
       </c>
@@ -5589,7 +5595,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>183</v>
       </c>
@@ -5717,7 +5723,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>124</v>
       </c>
@@ -5845,7 +5851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>11</v>
       </c>
